--- a/src/ciobrain-api/src/data/Data.xlsx
+++ b/src/ciobrain-api/src/data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00000OneCall\0000CIObrain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SpeedyNS.SPEEDYNS\Google Drive\Documents\Programming\CIOBrain\CIOBrain-DB\ciobrain-api-master\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677210A-81F1-4F75-A00C-14A70D2E7214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65B712-8261-493C-ADC4-298CA44CECDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="366" yWindow="366" windowWidth="21744" windowHeight="9210" xr2:uid="{DC75A604-7F14-4874-ACAD-732E5A706C0E}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{DC75A604-7F14-4874-ACAD-732E5A706C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,12 +209,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,28 +559,27 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.47265625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="12.26171875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.26171875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.47265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.26171875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.3671875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="15.15625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.1015625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.68359375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.62890625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.83984375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.15625" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.83984375" style="4"/>
+    <col min="1" max="1" width="14.46484375" customWidth="1"/>
+    <col min="2" max="3" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="5" max="5" width="22.46484375" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="9" width="15.1328125" customWidth="1"/>
+    <col min="10" max="10" width="10.06640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="16.86328125" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -616,7 +614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -643,7 +641,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -670,7 +668,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -697,7 +695,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -716,7 +714,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -735,7 +733,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -754,7 +752,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -773,7 +771,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -802,7 +800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
